--- a/BliviPedidos/uploads/ProdutoListaImportacao.xlsx
+++ b/BliviPedidos/uploads/ProdutoListaImportacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5169D574-0B44-4B94-B363-B048D0FAACE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CA8B8F-71FE-4C0D-B48F-108213CDBF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4F5C488D-2B5C-4895-A061-ADC3D9B63A4C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>CODIGO</t>
   </si>
@@ -48,40 +48,106 @@
     <t>CodeBar</t>
   </si>
   <si>
-    <t>coca cola</t>
-  </si>
-  <si>
-    <t>1 LITRO</t>
-  </si>
-  <si>
-    <t>Suco laranja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COCACOLA </t>
-  </si>
-  <si>
-    <t>300 ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RED LABEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red Label </t>
-  </si>
-  <si>
-    <t>black Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WISK PASSAPORT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gelo de coco </t>
-  </si>
-  <si>
-    <t>350 ML</t>
-  </si>
-  <si>
-    <t>GIN DE MORANGO</t>
+    <t>Vinho Tinto Reserva</t>
+  </si>
+  <si>
+    <t>750ml</t>
+  </si>
+  <si>
+    <t>Vinho Branco Chardonnay</t>
+  </si>
+  <si>
+    <t>Espumante Brut</t>
+  </si>
+  <si>
+    <t>Cerveja Artesanal IPA</t>
+  </si>
+  <si>
+    <t>500ml</t>
+  </si>
+  <si>
+    <t>Whisky 12 anos</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>Vodka Premium</t>
+  </si>
+  <si>
+    <t>Cachaça Envelhecida</t>
+  </si>
+  <si>
+    <t>700ml</t>
+  </si>
+  <si>
+    <t>Gin London Dry</t>
+  </si>
+  <si>
+    <t>Rum Carta Blanca</t>
+  </si>
+  <si>
+    <t>Licor de Café</t>
+  </si>
+  <si>
+    <t>Vinho Rosé Seco</t>
+  </si>
+  <si>
+    <t>Tequila Prata</t>
+  </si>
+  <si>
+    <t>Vermute Rosso</t>
+  </si>
+  <si>
+    <t>Cerveja Pilsen</t>
+  </si>
+  <si>
+    <t>Vinho Espumante Rosé</t>
+  </si>
+  <si>
+    <t>Cerveja Stout</t>
+  </si>
+  <si>
+    <t>Whisky 18 anos</t>
+  </si>
+  <si>
+    <t>Vodka Flavored</t>
+  </si>
+  <si>
+    <t>Cachaça Prata</t>
+  </si>
+  <si>
+    <t>Gin Flavored</t>
+  </si>
+  <si>
+    <t>Rum Añejo</t>
+  </si>
+  <si>
+    <t>Licor de Chocolate</t>
+  </si>
+  <si>
+    <t>Vinho Tinto Suave</t>
+  </si>
+  <si>
+    <t>Tequila Ouro</t>
+  </si>
+  <si>
+    <t>Vermute Bianco</t>
+  </si>
+  <si>
+    <t>Cerveja Lager</t>
+  </si>
+  <si>
+    <t>Vinho Espumante Branco</t>
+  </si>
+  <si>
+    <t>Cerveja Pale Ale</t>
+  </si>
+  <si>
+    <t>Whisky Bourbon</t>
+  </si>
+  <si>
+    <t>Vodka Importada</t>
   </si>
 </sst>
 </file>
@@ -129,10 +195,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,16 +520,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDE2111-5A27-439D-8B93-85EB32EC12AF}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -485,157 +559,694 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
+        <v>80</v>
+      </c>
+      <c r="D2" s="4">
+        <v>120</v>
+      </c>
+      <c r="E2" s="3">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3">
+        <v>123456789001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4">
+        <v>90</v>
+      </c>
+      <c r="E3" s="3">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3">
+        <v>123456789002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4">
+        <v>150</v>
+      </c>
+      <c r="E4" s="3">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3">
+        <v>123456789003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3">
+        <v>100</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>123456789004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>150</v>
+      </c>
+      <c r="D6" s="4">
+        <v>200</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
-        <v>149.99</v>
-      </c>
-      <c r="D2" s="1">
-        <v>219</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="G6" s="3">
+        <v>123456789005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4">
+        <v>80</v>
+      </c>
+      <c r="E7" s="3">
+        <v>60</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3">
+        <v>123456789006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3">
+        <v>123456789007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4">
+        <v>90</v>
+      </c>
+      <c r="D9" s="4">
+        <v>120</v>
+      </c>
+      <c r="E9" s="3">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3">
+        <v>123456789008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3">
+        <v>40</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3">
+        <v>123456789009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="D3" s="1">
-        <v>12.99</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3">
+        <v>123456789010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4">
+        <v>55</v>
+      </c>
+      <c r="D12" s="4">
+        <v>85</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>123456789011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4">
+        <v>60</v>
+      </c>
+      <c r="D13" s="4">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3">
+        <v>123456789012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4">
+        <v>70</v>
+      </c>
+      <c r="E14" s="3">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>123456789013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6.99</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D15" s="4">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="E15" s="3">
+        <v>120</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3">
+        <v>123456789014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="C5" s="1">
-        <v>49.99</v>
-      </c>
-      <c r="D5" s="1">
-        <v>59.99</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4">
+        <v>90</v>
+      </c>
+      <c r="D16" s="4">
+        <v>130</v>
+      </c>
+      <c r="E16" s="3">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3">
+        <v>123456789015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3">
+        <v>123456789016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4">
+        <v>220</v>
+      </c>
+      <c r="D18" s="4">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3">
+        <v>123456789017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4">
+        <v>70</v>
+      </c>
+      <c r="E19" s="3">
+        <v>55</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3">
+        <v>123456789018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4">
+        <v>50</v>
+      </c>
+      <c r="E20" s="3">
+        <v>70</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3">
+        <v>123456789019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.99</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4">
+        <v>80</v>
+      </c>
+      <c r="D21" s="4">
+        <v>110</v>
+      </c>
+      <c r="E21" s="3">
+        <v>30</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
+        <v>123456789020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4">
+        <v>85</v>
+      </c>
+      <c r="E22" s="3">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>123456789021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4">
+        <v>30</v>
+      </c>
+      <c r="D23" s="4">
+        <v>55</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3">
+        <v>123456789022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4">
+        <v>75</v>
+      </c>
+      <c r="E24" s="3">
+        <v>50</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
+        <v>123456789023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="4">
+        <v>65</v>
+      </c>
+      <c r="D25" s="4">
+        <v>95</v>
+      </c>
+      <c r="E25" s="3">
+        <v>30</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="3">
+        <v>123456789024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="4">
+        <v>40</v>
+      </c>
+      <c r="D26" s="4">
+        <v>65</v>
+      </c>
+      <c r="E26" s="3">
+        <v>40</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
+        <v>123456789025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C27" s="4">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4">
+        <v>18</v>
+      </c>
+      <c r="E27" s="3">
+        <v>150</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1">
-        <v>119.99</v>
-      </c>
-      <c r="D7" s="1">
-        <v>149.99</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>119.99</v>
-      </c>
-      <c r="D8" s="1">
-        <v>149.99</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.99</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5.99</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="G27" s="3">
+        <v>123456789026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4">
+        <v>100</v>
+      </c>
+      <c r="D28" s="4">
+        <v>140</v>
+      </c>
+      <c r="E28" s="3">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="3">
+        <v>123456789027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="4">
+        <v>12</v>
+      </c>
+      <c r="D29" s="4">
+        <v>22</v>
+      </c>
+      <c r="E29" s="3">
+        <v>100</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3">
+        <v>123456789028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="4">
+        <v>140</v>
+      </c>
+      <c r="D30" s="4">
+        <v>180</v>
+      </c>
+      <c r="E30" s="3">
+        <v>25</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="3">
+        <v>123456789029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1">
-        <v>49.99</v>
-      </c>
-      <c r="D10" s="1">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="4">
+        <v>55</v>
+      </c>
+      <c r="D31" s="4">
+        <v>85</v>
+      </c>
+      <c r="E31" s="3">
+        <v>60</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="3">
+        <v>123456789030</v>
       </c>
     </row>
   </sheetData>
